--- a/biology/Médecine/Chémosis/Chémosis.xlsx
+++ b/biology/Médecine/Chémosis/Chémosis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A9mosis</t>
+          <t>Chémosis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chémosis est un œdème conjonctival[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chémosis est un œdème conjonctival.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A9mosis</t>
+          <t>Chémosis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les chémosis sont habituellement causés par des allergies ou des infections virales (ex : grippe, rhume, COVID-19[2] ) , impliquant parfois un frottement des yeux excessif.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les chémosis sont habituellement causés par des allergies ou des infections virales (ex : grippe, rhume, COVID-19 ) , impliquant parfois un frottement des yeux excessif.
 D'autres causes sont possibles :
 obstruction de la veine cave supérieure, accompagnée d'un œdème facial ;
 hyperthyroïdie, en association avec une exophtalmie</t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A9mosis</t>
+          <t>Chémosis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les traitements dépendent de la cause du chémosis.
 </t>
